--- a/OpenCart-TestCases.xlsx
+++ b/OpenCart-TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DACAEE-79DA-41F7-8173-629486C1176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4A1DA-5651-4087-9A70-5C6816913DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -8166,7 +8166,7 @@
     <t>Validate the breadcrumb, Page Heading, Page Title and Page URL of Login page</t>
   </si>
   <si>
-    <t>Gnaneshwari</t>
+    <t>Gnaneshwari Mahimaluru</t>
   </si>
 </sst>
 </file>
@@ -8270,7 +8270,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8298,6 +8298,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8471,7 +8477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8512,9 +8518,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8544,10 +8547,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8576,17 +8577,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8596,9 +8588,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8627,15 +8616,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8650,6 +8630,47 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9805,7 +9826,7 @@
   <dimension ref="G6:J13"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H7" sqref="H7:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9816,72 +9837,72 @@
   </cols>
   <sheetData>
     <row r="6" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G7" s="29"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="29" t="s">
         <v>1127</v>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G8" s="29"/>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="28"/>
+      <c r="H8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="31" t="s">
         <v>2134</v>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G9" s="29"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G10" s="29"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G11" s="29"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G12" s="29"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="64"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G13" s="29"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9898,7 +9919,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9916,46 +9937,46 @@
     <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="74" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -10246,7 +10267,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -10265,46 +10286,46 @@
     <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="75" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="74" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -10865,7 +10886,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10883,46 +10904,46 @@
     <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="74" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -11666,43 +11687,43 @@
       <c r="A30" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>1367</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>2037</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="23"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>1368</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>2038</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -11720,16 +11741,16 @@
       <c r="A32" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>1369</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>2039</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -11747,16 +11768,16 @@
       <c r="A33" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>2040</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -11774,7 +11795,7 @@
       <c r="A34" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>442</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -11801,7 +11822,7 @@
       <c r="A35" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>442</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -11860,8 +11881,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="34" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="60" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -11880,46 +11901,46 @@
     <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="75" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="74" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -12258,45 +12279,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -12311,7 +12332,7 @@
       <c r="A3" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>537</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -12905,45 +12926,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -13255,45 +13276,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -13305,7 +13326,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>591</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -13713,45 +13734,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -13889,7 +13910,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>627</v>
       </c>
       <c r="H7" s="15"/>
@@ -14171,45 +14192,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -14347,7 +14368,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>658</v>
       </c>
       <c r="H7" s="15"/>
@@ -14845,45 +14866,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -15021,7 +15042,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>753</v>
       </c>
       <c r="H7" s="15"/>
@@ -15255,614 +15276,614 @@
   <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="E10" activeCellId="5" sqref="A2:A7 A10 B10 C10 D10 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="128.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="45"/>
+    <col min="1" max="1" width="39.5546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.44140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="13" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="41"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="66" t="s">
         <v>1076</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="57" t="s">
         <v>1126</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="66" t="s">
         <v>1077</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="57" t="s">
         <v>1127</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="66" t="s">
         <v>1078</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="56" t="s">
         <v>2127</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="56"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="66" t="s">
         <v>1079</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="56" t="s">
         <v>2134</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="66" t="s">
         <v>1080</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="56" t="s">
         <v>2129</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="56"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="66" t="s">
         <v>1081</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="56" t="s">
         <v>2129</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="56"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="67" t="s">
         <v>1082</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="67" t="s">
         <v>1083</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="67" t="s">
         <v>1084</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="68" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>1093</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>1096</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="34" t="s">
         <v>1086</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="34">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="42" t="s">
         <v>1097</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="34" t="s">
         <v>1086</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="34">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="42" t="s">
         <v>1098</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="34" t="s">
         <v>1086</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="42" t="s">
         <v>1099</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="34" t="s">
         <v>1087</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="34">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="42" t="s">
         <v>1100</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="34" t="s">
         <v>1088</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="34">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="42" t="s">
         <v>1101</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>1089</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="42" t="s">
         <v>1102</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="34" t="s">
         <v>1088</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="34">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="42" t="s">
         <v>1103</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="34" t="s">
         <v>1088</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="37" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="42" t="s">
         <v>1104</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="34" t="s">
         <v>1089</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="34">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="42" t="s">
         <v>1105</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="34" t="s">
         <v>1088</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="34">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="36" t="s">
         <v>526</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="42" t="s">
         <v>1106</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="34" t="s">
         <v>1087</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="42" t="s">
         <v>1091</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="34" t="s">
         <v>1088</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="42" t="s">
         <v>1107</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="34" t="s">
         <v>1087</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="42" t="s">
         <v>1108</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="42" t="s">
         <v>1109</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="42" t="s">
         <v>1110</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="34">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="36" t="s">
         <v>704</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="42" t="s">
         <v>1111</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="36" t="s">
         <v>719</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="42" t="s">
         <v>1112</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="36" t="s">
         <v>724</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="42" t="s">
         <v>1113</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="36" t="s">
         <v>746</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="42" t="s">
         <v>1114</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="42" t="s">
         <v>1115</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="36" t="s">
         <v>798</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="42" t="s">
         <v>1116</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="36" t="s">
         <v>825</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="42" t="s">
         <v>1117</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="36" t="s">
         <v>848</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="42" t="s">
         <v>1118</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="36" t="s">
         <v>866</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="42" t="s">
         <v>1119</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="34" t="s">
         <v>1089</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="34">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="36" t="s">
         <v>904</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="34" t="s">
         <v>2128</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="42" t="s">
         <v>1120</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="34" t="s">
         <v>1089</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="36" t="s">
         <v>930</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="38" t="s">
         <v>2128</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="43" t="s">
         <v>1121</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="38">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="36" t="s">
         <v>961</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="38" t="s">
         <v>2128</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="43" t="s">
         <v>1122</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="38" t="s">
         <v>1089</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="38">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="36" t="s">
         <v>998</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="39" t="s">
         <v>2128</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="44" t="s">
         <v>1123</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="39" t="s">
         <v>1089</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="38">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="36" t="s">
         <v>1057</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="39" t="s">
         <v>2128</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="44" t="s">
         <v>1124</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="39" t="s">
         <v>1089</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="39">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="36" t="s">
         <v>1070</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="39" t="s">
         <v>2128</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="44" t="s">
         <v>1125</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="39" t="s">
         <v>1087</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="39">
         <v>3</v>
       </c>
     </row>
@@ -15939,45 +15960,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -15989,7 +16010,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>705</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -16115,7 +16136,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>715</v>
       </c>
       <c r="H7" s="15"/>
@@ -16261,45 +16282,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -16437,7 +16458,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>733</v>
       </c>
       <c r="H7" s="15"/>
@@ -16518,7 +16539,7 @@
       <c r="F10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>715</v>
       </c>
       <c r="H10" s="15"/>
@@ -16664,45 +16685,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -16840,7 +16861,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>752</v>
       </c>
       <c r="H7" s="15"/>
@@ -16867,7 +16888,7 @@
       <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>757</v>
       </c>
       <c r="H8" s="15"/>
@@ -17121,45 +17142,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -17297,7 +17318,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>577</v>
       </c>
       <c r="H7" s="15"/>
@@ -17324,7 +17345,7 @@
       <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>783</v>
       </c>
       <c r="H8" s="15"/>
@@ -17497,45 +17518,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -17673,7 +17694,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>577</v>
       </c>
       <c r="H7" s="15"/>
@@ -17700,7 +17721,7 @@
       <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>805</v>
       </c>
       <c r="H8" s="15"/>
@@ -18062,45 +18083,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -18238,7 +18259,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>833</v>
       </c>
       <c r="H7" s="15"/>
@@ -18265,7 +18286,7 @@
       <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>577</v>
       </c>
       <c r="H8" s="15"/>
@@ -18292,7 +18313,7 @@
       <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>838</v>
       </c>
       <c r="H9" s="15"/>
@@ -18465,45 +18486,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -18641,7 +18662,7 @@
       <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>856</v>
       </c>
       <c r="H7" s="15"/>
@@ -18814,45 +18835,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -19703,45 +19724,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -19753,7 +19774,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="50.4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>903</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -20160,45 +20181,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -20597,8 +20618,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="52" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="52" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -20617,784 +20638,784 @@
     <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:11" s="70" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="69" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="58" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="51" t="s">
         <v>1131</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="51" t="s">
         <v>1844</v>
       </c>
-      <c r="F3" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="58" t="s">
+      <c r="F3" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="59"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="51" t="s">
         <v>1132</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="51" t="s">
         <v>1845</v>
       </c>
-      <c r="F4" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>1133</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="59"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="51" t="s">
         <v>1134</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="51" t="s">
         <v>1846</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="59"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="313.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="51" t="s">
         <v>1135</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="51" t="s">
         <v>1847</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="58" t="s">
+      <c r="F6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="59"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="208.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="51" t="s">
         <v>1136</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="51" t="s">
         <v>1848</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="58" t="s">
+      <c r="F7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="59"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:11" ht="208.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="51" t="s">
         <v>1137</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="51" t="s">
         <v>1849</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="58" t="s">
+      <c r="F8" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="59"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="51" t="s">
         <v>1138</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="51" t="s">
         <v>1850</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="59"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" ht="174" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="51" t="s">
         <v>1139</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="51" t="s">
         <v>1851</v>
       </c>
-      <c r="F10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="58" t="s">
+      <c r="F10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="59"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="51" t="s">
         <v>1140</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="51" t="s">
         <v>1852</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="51" t="s">
         <v>1129</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="59"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="51" t="s">
         <v>1141</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="51" t="s">
         <v>1853</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="55" t="s">
         <v>1130</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="59"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="51" t="s">
         <v>1142</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="51" t="s">
         <v>1854</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="59"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="51" t="s">
         <v>1143</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="51" t="s">
         <v>1855</v>
       </c>
-      <c r="F14" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="58" t="s">
+      <c r="F14" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="59"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="51" t="s">
         <v>1144</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="51" t="s">
         <v>1856</v>
       </c>
-      <c r="F15" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="58" t="s">
+      <c r="F15" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="59"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="87" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="51" t="s">
         <v>1145</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="58" t="s">
+      <c r="F16" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="59"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="51" t="s">
         <v>1146</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="51" t="s">
         <v>1857</v>
       </c>
-      <c r="F17" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="58" t="s">
+      <c r="F17" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="59"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="51" t="s">
         <v>1147</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="51" t="s">
         <v>1858</v>
       </c>
-      <c r="F18" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="59"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="51" t="s">
         <v>1148</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="51" t="s">
         <v>1859</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="50">
         <v>12345</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="59"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="51" t="s">
         <v>1149</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="51" t="s">
         <v>2130</v>
       </c>
-      <c r="F20" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="58" t="s">
+      <c r="F20" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="53"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="55" t="s">
         <v>1150</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="51" t="s">
         <v>1860</v>
       </c>
-      <c r="F21" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="58" t="s">
+      <c r="F21" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="53"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="51" t="s">
         <v>1151</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="51" t="s">
         <v>1861</v>
       </c>
-      <c r="F22" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="43" t="s">
+      <c r="F22" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="53"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="51" t="s">
         <v>1152</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="51" t="s">
         <v>1862</v>
       </c>
-      <c r="F23" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="43" t="s">
+      <c r="F23" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="53"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="51" t="s">
         <v>1153</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="51" t="s">
         <v>1863</v>
       </c>
-      <c r="F24" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="58" t="s">
+      <c r="F24" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="53"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="1:11" ht="87" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="51" t="s">
         <v>1154</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="58" t="s">
+      <c r="F25" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="53"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="46"/>
     </row>
     <row r="26" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="51" t="s">
         <v>1155</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="51" t="s">
         <v>1864</v>
       </c>
-      <c r="F26" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="58" t="s">
+      <c r="F26" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="53"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="51" t="s">
         <v>1156</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="58" t="s">
+      <c r="F27" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="53"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="51" t="s">
         <v>1157</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="58" t="s">
+      <c r="F28" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="53"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="46"/>
     </row>
     <row r="29" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="51" t="s">
         <v>1158</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="58" t="s">
+      <c r="F29" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="59"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21452,45 +21473,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -21854,45 +21875,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -22392,45 +22413,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -23091,45 +23112,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="60" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -23257,696 +23278,696 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="32" customWidth="1"/>
-    <col min="4" max="4" width="52.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.6640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="32" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="32"/>
+    <col min="1" max="1" width="21.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="30" customWidth="1"/>
+    <col min="4" max="4" width="52.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:11" s="41" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="69" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="51" t="s">
         <v>1161</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="51" t="s">
         <v>1159</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="51" t="s">
         <v>1876</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="50" t="s">
         <v>1181</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="59"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="51" t="s">
         <v>1162</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="51" t="s">
         <v>1877</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="59"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="51" t="s">
         <v>2131</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="51" t="s">
         <v>1878</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="59"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="51" t="s">
         <v>2132</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="51" t="s">
         <v>1879</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="50" t="s">
         <v>1182</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="59"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="51" t="s">
         <v>1163</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="51" t="s">
         <v>1880</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="58" t="s">
+      <c r="F7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="59"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="51" t="s">
         <v>1164</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="51" t="s">
         <v>1865</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="58" t="s">
+      <c r="F8" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="59"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" ht="174" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="51" t="s">
         <v>1165</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="51" t="s">
         <v>1866</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="58" t="s">
+      <c r="F9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="59"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="51" t="s">
         <v>1166</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="51" t="s">
         <v>1867</v>
       </c>
-      <c r="F10" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="58" t="s">
+      <c r="F10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="59"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="51" t="s">
         <v>1167</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="51" t="s">
         <v>1868</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="50" t="s">
         <v>1181</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="59"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="51" t="s">
         <v>1168</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="51" t="s">
         <v>1869</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="50" t="s">
         <v>1181</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="53"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="51" t="s">
         <v>1169</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="51" t="s">
         <v>1870</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="53"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" ht="156.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="51" t="s">
         <v>1170</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="51" t="s">
         <v>1871</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="53"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:11" ht="87" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="51" t="s">
         <v>1171</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="51" t="s">
         <v>1872</v>
       </c>
-      <c r="F15" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="58" t="s">
+      <c r="F15" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="53"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" ht="121.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="51" t="s">
         <v>1172</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="51" t="s">
         <v>1873</v>
       </c>
-      <c r="F16" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="58" t="s">
+      <c r="F16" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="53"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="51" t="s">
         <v>1173</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="51" t="s">
         <v>1874</v>
       </c>
-      <c r="F17" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="58" t="s">
+      <c r="F17" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="53"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="278.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="51" t="s">
         <v>1174</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="51" t="s">
         <v>1881</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="50" t="s">
         <v>1181</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="53"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" ht="191.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="51" t="s">
         <v>1175</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="51" t="s">
         <v>1882</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="50" t="s">
         <v>1181</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="53"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11" ht="174" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="55" t="s">
         <v>1176</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="51" t="s">
         <v>1883</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="50" t="s">
         <v>1181</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="53"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="51" t="s">
         <v>1177</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="51" t="s">
         <v>1875</v>
       </c>
-      <c r="F21" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="58" t="s">
+      <c r="F21" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="53"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="51" t="s">
         <v>1178</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="51" t="s">
         <v>1884</v>
       </c>
-      <c r="F22" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="58" t="s">
+      <c r="F22" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="53"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="51" t="s">
         <v>2133</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="51" t="s">
         <v>1867</v>
       </c>
-      <c r="F23" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="58" t="s">
+      <c r="F23" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="53"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="51" t="s">
         <v>1179</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="51" t="s">
         <v>1867</v>
       </c>
-      <c r="F24" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="58" t="s">
+      <c r="F24" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="53"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="1:11" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="51" t="s">
         <v>1180</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="51" t="s">
         <v>1867</v>
       </c>
-      <c r="F25" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="58" t="s">
+      <c r="F25" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="53"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23985,8 +24006,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24004,46 +24025,46 @@
     <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="72" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -24388,7 +24409,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24406,46 +24427,46 @@
     <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="72" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -25168,7 +25189,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25186,46 +25207,46 @@
     <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="72" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -25867,7 +25888,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -25886,46 +25907,46 @@
     <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="75" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="74" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -26625,7 +26646,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -26644,46 +26665,46 @@
     <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="75" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="74" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
